--- a/MATRIZ MOORA.xlsx
+++ b/MATRIZ MOORA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaqu\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaqu\OneDrive\Escritorio\DeEC - 5k1\dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDDC36B-9F4E-4548-A03D-EAB6F2B4A568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9681A913-F8A5-4E89-90C4-43F8B0F11769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Criterios" sheetId="4" r:id="rId1"/>
@@ -188,18 +188,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFC0B7F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -292,11 +292,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -316,49 +342,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -367,12 +363,56 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC0B7F5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -649,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC49EF9C-43E8-46FA-81BB-D83F18E80E2C}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,48 +699,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="16" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="F1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="K1" s="20" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="K1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="12" t="s">
@@ -708,29 +748,29 @@
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="2">
-        <v>9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N2" s="2">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="3">
         <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>9</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="3">
         <v>9</v>
@@ -740,29 +780,29 @@
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="2">
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N3" s="2">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3">
         <v>9</v>
       </c>
       <c r="D4" s="3">
         <v>9</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="3">
         <v>8</v>
@@ -772,29 +812,29 @@
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="2">
-        <v>7.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="N4" s="2">
         <v>8.6</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3">
         <v>9</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I5" s="3">
         <v>9</v>
@@ -804,27 +844,27 @@
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="2">
-        <v>8.1999999999999993</v>
+        <v>7</v>
       </c>
       <c r="N5" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3">
         <v>9</v>
       </c>
       <c r="D6" s="3">
         <v>9</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="3">
         <v>8</v>
       </c>
@@ -836,29 +876,29 @@
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N6" s="2">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3">
         <v>9</v>
       </c>
       <c r="D7" s="3">
         <v>8</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="3">
         <v>10</v>
@@ -868,32 +908,32 @@
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="2">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="N7" s="2">
         <v>8.6</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="6">
         <f>AVERAGE(C3:C7)</f>
-        <v>9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D8" s="6">
         <f>AVERAGE(D3:D7)</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="6">
         <f>AVERAGE(H3:H7)</f>
-        <v>8.1999999999999993</v>
+        <v>7</v>
       </c>
       <c r="I8" s="6">
         <f>AVERAGE(I3:I7)</f>
@@ -907,222 +947,230 @@
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
         <v>9</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I13" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>8</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I14" s="3">
         <v>9</v>
       </c>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3">
         <v>8</v>
       </c>
       <c r="D15" s="3">
         <v>9</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I15" s="3">
         <v>9</v>
       </c>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3">
         <v>9</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I16" s="3">
         <v>9</v>
       </c>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="6">
         <f>AVERAGE(C12:C16)</f>
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D17" s="6">
         <f>AVERAGE(D12:D16)</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="6">
         <f>AVERAGE(H12:H16)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I17" s="6">
         <f>AVERAGE(I12:I16)</f>
         <v>8.8000000000000007</v>
       </c>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="F19" s="16" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="F19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="3">
         <v>8</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="3">
         <v>8</v>
       </c>
@@ -1131,42 +1179,42 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3">
         <v>9</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I22" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3">
         <v>8</v>
       </c>
       <c r="D23" s="3">
         <v>8</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="3">
         <v>8</v>
       </c>
@@ -1175,20 +1223,20 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="3">
         <v>8</v>
       </c>
       <c r="D24" s="3">
         <v>9</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="3">
         <v>8</v>
       </c>
@@ -1197,20 +1245,20 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3">
         <v>9</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="3">
         <v>9</v>
       </c>
@@ -1219,25 +1267,25 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="6">
         <f>AVERAGE(C21:C25)</f>
-        <v>7.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D26" s="6">
         <f>AVERAGE(D21:D25)</f>
         <v>8.6</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="6">
         <f>AVERAGE(H21:H25)</f>
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I26" s="6">
         <f>AVERAGE(I21:I25)</f>
@@ -1245,42 +1293,82 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="57">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A29:M29"/>
     <mergeCell ref="A30:M30"/>
     <mergeCell ref="K2:L2"/>
@@ -1296,46 +1384,7 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1346,7 +1395,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,8 +1404,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,10 +1435,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
@@ -1403,33 +1452,33 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1439,7 +1488,7 @@
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="2">
-        <v>9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
@@ -1472,7 +1521,7 @@
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -1505,7 +1554,7 @@
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="2">
-        <v>7.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -1519,7 +1568,7 @@
       <c r="G6" s="2">
         <v>83.7</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="2">
@@ -1538,7 +1587,7 @@
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="2">
-        <v>8.1999999999999993</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
@@ -1571,7 +1620,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
@@ -1604,7 +1653,7 @@
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="2">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -1618,7 +1667,7 @@
       <c r="G9" s="2">
         <v>81.900000000000006</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="2">
@@ -1632,7 +1681,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:K2"/>
@@ -1640,7 +1691,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1651,7 +1701,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1688,10 +1738,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
@@ -1705,33 +1755,33 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1821,7 +1871,7 @@
       <c r="G6" s="2">
         <v>83.7</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="7">
         <v>42.8</v>
       </c>
       <c r="I6" s="2">
@@ -1920,7 +1970,7 @@
       <c r="G9" s="2">
         <v>81.900000000000006</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="7">
         <v>42.9</v>
       </c>
       <c r="I9" s="2">
@@ -1934,19 +1984,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1968,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F97BF2-E346-4A8E-BFB3-EA8136A2E791}">
   <dimension ref="A2:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1978,58 +2028,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="G3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2059,10 +2109,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="3">
         <v>2</v>
       </c>
@@ -2092,10 +2142,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3">
         <v>2</v>
       </c>
@@ -2125,10 +2175,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -2158,10 +2208,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -2191,10 +2241,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="6">
         <f>SUM(C4:C8)</f>
         <v>7</v>
@@ -2233,7 +2283,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="6">
@@ -2242,91 +2292,91 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="G17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="23">
+      <c r="B18" s="13"/>
+      <c r="C18" s="8">
         <f>C9/$B$12</f>
         <v>2.5454545454545455E-2</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="8">
         <f t="shared" ref="D18:K18" si="1">D9/$B$12</f>
         <v>0.04</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="8">
         <f t="shared" si="1"/>
         <v>0.10181818181818182</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="8">
         <f t="shared" si="1"/>
         <v>0.11636363636363636</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="8">
         <f t="shared" si="1"/>
         <v>0.12727272727272726</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="8">
         <f t="shared" si="1"/>
         <v>0.13818181818181818</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="8">
         <f t="shared" si="1"/>
         <v>0.14545454545454545</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="8">
         <f t="shared" si="1"/>
         <v>0.16727272727272727</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="8">
         <f t="shared" si="1"/>
         <v>0.13818181818181818</v>
       </c>
@@ -2354,7 +2404,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C13" sqref="C13:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2363,43 +2413,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
@@ -2413,33 +2463,33 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2530,7 +2580,7 @@
         <v>83.7</v>
       </c>
       <c r="H6" s="2">
-        <v>42.8</v>
+        <v>59.07</v>
       </c>
       <c r="I6" s="2">
         <v>53.2</v>
@@ -2629,7 +2679,7 @@
         <v>81.900000000000006</v>
       </c>
       <c r="H9" s="2">
-        <v>42.9</v>
+        <v>62.39</v>
       </c>
       <c r="I9" s="2">
         <v>58.5</v>
@@ -2642,10 +2692,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="6">
         <v>2.5454545454545455E-2</v>
       </c>
@@ -2676,16 +2726,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
